--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Recurrence_code\FEDformer_zsy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\zsy_recurrence_code\FEDformer_zsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F637A8-2A7D-44D7-B827-1853A35A54E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{2956DD4B-986C-4CB9-9B0E-6737BE3FEFF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Args in experiment:</t>
   </si>
@@ -139,12 +138,99 @@
   </si>
   <si>
     <t>mse:0.12603583931922913, mae:0.267594575881958</t>
+  </si>
+  <si>
+    <t>(zsy) C:\Users\Administrator\zsy_recurrence_code\FEDformer_zsy&gt;C:/ProgramData/Anaconda3/envs/zsy/python.exe c:/Users/Administrator/zsy_recurrence_code/FEDformer_zsy/run.py</t>
+  </si>
+  <si>
+    <t>Namespace(L=3, activation='gelu', base='legendre', batch_size=32, c_out=1, checkpoints='./checkpoints/', cross_activation='tanh', d_ff=2048, d_layers=1, d_model=512, data='BP', data_path='BP.csv', dec_in=1, des='test', devices='0,1', distil=False, do_predict=False, dropout=0.05, e_layers=2, embed='timeF', enc_in=1, factor=1, features='S', freq='h', gpu=0, is_training=1, itr=3, label_len=500, learning_rate=0.0001, loss='mse', lradj='type1', mode_select='random', model='Informer', model_id='test', modes=64, moving_avg=[24], n_heads=8, num_workers=0, output_attention=False, patience=1, pred_len=0, root_path='./data/', seq_len=500, target='aortic', task_id='3_2_3PM', train_epochs=10, use_amp=False, use_gpu=True, use_multi_gpu=False, version='Fourier', wavelet=False)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 200, epoch: 1 | loss: 0.3297428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 400, epoch: 1 | loss: 0.2621633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 600, epoch: 1 | loss: 0.2365115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 800, epoch: 1 | loss: 0.2083671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 1000, epoch: 1 | loss: 0.1595728</t>
+  </si>
+  <si>
+    <t>Epoch: 1 cost time: 194.959477186203</t>
+  </si>
+  <si>
+    <t>Epoch: 1, Steps: 7859 | Train Loss: 0.2927056 Vali Loss: 0.2087665 Test Loss: 0.1070277</t>
+  </si>
+  <si>
+    <t>Validation loss decreased (inf --&gt; 0.208767).  Saving model ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 200, epoch: 2 | loss: 0.1214072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 400, epoch: 2 | loss: 0.1348536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 600, epoch: 2 | loss: 0.1394693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 800, epoch: 2 | loss: 0.1556498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 1000, epoch: 2 | loss: 0.0962396</t>
+  </si>
+  <si>
+    <t>Epoch: 2 cost time: 193.37315344810486</t>
+  </si>
+  <si>
+    <t>Epoch: 2, Steps: 7859 | Train Loss: 0.1361159 Vali Loss: 0.2077525 Test Loss: 0.0460202</t>
+  </si>
+  <si>
+    <t>Validation loss decreased (0.208767 --&gt; 0.207753).  Saving model ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 200, epoch: 3 | loss: 0.1069812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 400, epoch: 3 | loss: 0.1133105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 600, epoch: 3 | loss: 0.1001655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 800, epoch: 3 | loss: 0.0745619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        iters: 1000, epoch: 3 | loss: 0.1023149</t>
+  </si>
+  <si>
+    <t>Epoch: 3 cost time: 194.53918290138245</t>
+  </si>
+  <si>
+    <t>Epoch: 3, Steps: 7859 | Train Loss: 0.1022749 Vali Loss: 0.2107206 Test Loss: 0.0440069</t>
+  </si>
+  <si>
+    <t>EarlyStopping counter: 1 out of 1</t>
+  </si>
+  <si>
+    <t>test shape: (140, 32, 500, 1) (140, 32, 500, 1)</t>
+  </si>
+  <si>
+    <t>test shape: (4480, 500, 1) (4480, 500, 1)</t>
+  </si>
+  <si>
+    <t>mse:0.043312180787324905, mae:0.1463319957256317</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,14 +587,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988F433-C0DC-4058-BEC1-331AFD34603D}">
-  <dimension ref="A2:A40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -703,6 +792,206 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
